--- a/Complete-spreadsheets/EC/F8-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/F8-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE457F2-315D-4539-BC8A-97E84649D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE4B18-3DC6-4065-B0E3-2A86B5A610DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="R14" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>16.949845222200558</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.0179681036804569</v>
-      </c>
-      <c r="D2" s="3">
-        <v>8.7429099726795307</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.6094415141790801</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.080115278186728</v>
+      <c r="B2" s="4">
+        <v>193.8701821900051</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.8107886839158471</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.3841608957973488</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.9752353809633609</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.4436164258914581</v>
       </c>
       <c r="G2">
-        <v>35.400280090926358</v>
+        <v>208.48398357657311</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>17.35289756377615</v>
-      </c>
-      <c r="C3" s="3">
-        <v>10.284037017998561</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.4399057606212669</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.403852835214725</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.2654624552701268</v>
+      <c r="B3" s="4">
+        <v>144.5213937786238</v>
+      </c>
+      <c r="C3" s="4">
+        <v>28.903737416746331</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12.355044789004641</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.8308386385928994</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7472258708043018</v>
       </c>
       <c r="G3">
-        <v>42.746155632880807</v>
+        <v>193.35824049377189</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -573,22 +573,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>193.8701821900051</v>
+        <v>21.18240039803355</v>
       </c>
       <c r="C4" s="4">
-        <v>5.8107886839158471</v>
+        <v>10.093316853117059</v>
       </c>
       <c r="D4" s="4">
-        <v>3.3841608957973488</v>
+        <v>37.701412959954418</v>
       </c>
       <c r="E4" s="4">
-        <v>2.9752353809633609</v>
+        <v>5.2001252764226953</v>
       </c>
       <c r="F4" s="4">
-        <v>2.4436164258914581</v>
+        <v>2.964963829234212</v>
       </c>
       <c r="G4">
-        <v>208.48398357657311</v>
+        <v>77.142219316761924</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -611,22 +611,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>144.5213937786238</v>
+        <v>70.821780192218171</v>
       </c>
       <c r="C5" s="4">
-        <v>28.903737416746331</v>
+        <v>12.506447043992869</v>
       </c>
       <c r="D5" s="4">
-        <v>12.355044789004641</v>
+        <v>32.641287551575793</v>
       </c>
       <c r="E5" s="4">
-        <v>4.8308386385928994</v>
+        <v>4.2413515207667727</v>
       </c>
       <c r="F5" s="4">
-        <v>2.7472258708043018</v>
+        <v>3.0010822657538871</v>
       </c>
       <c r="G5">
-        <v>193.35824049377189</v>
+        <v>123.2119485743075</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>21.18240039803355</v>
+        <v>114.94239371200111</v>
       </c>
       <c r="C6" s="4">
-        <v>10.093316853117059</v>
+        <v>9.4022107600170113</v>
       </c>
       <c r="D6" s="4">
-        <v>37.701412959954418</v>
+        <v>8.6695549915195969</v>
       </c>
       <c r="E6" s="4">
-        <v>5.2001252764226953</v>
+        <v>3.1571785928105851</v>
       </c>
       <c r="F6" s="4">
-        <v>2.964963829234212</v>
+        <v>3.9019743078879561</v>
       </c>
       <c r="G6">
-        <v>77.142219316761924</v>
+        <v>140.07331236423619</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -687,22 +687,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>70.821780192218171</v>
+        <v>8.3566421388757863</v>
       </c>
       <c r="C7" s="4">
-        <v>12.506447043992869</v>
+        <v>5.3112248996847651</v>
       </c>
       <c r="D7" s="4">
-        <v>32.641287551575793</v>
+        <v>5.4899192961368737</v>
       </c>
       <c r="E7" s="4">
-        <v>4.2413515207667727</v>
+        <v>4.1558889637603578</v>
       </c>
       <c r="F7" s="4">
-        <v>3.0010822657538871</v>
+        <v>4.4720588009141897</v>
       </c>
       <c r="G7">
-        <v>123.2119485743075</v>
+        <v>27.785734099371972</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -724,23 +724,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>36.794795567422568</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8.5452236784482416</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.382523042544189</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6.0960774516988971</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.2522316221953691</v>
+      <c r="B8" s="4">
+        <v>140.61742076522421</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9.0047166937965457</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18.78307953436385</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.934320772412411</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.6059388003828383</v>
       </c>
       <c r="G8">
-        <v>57.07085136230927</v>
+        <v>177.94547656617979</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -762,23 +762,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>10.71676283622665</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5.7487517650928952</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5.3028992722647503</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.7352775707691892</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.4623096303511658</v>
+      <c r="B9" s="4">
+        <v>22.602370739199571</v>
+      </c>
+      <c r="C9" s="4">
+        <v>47.264964173203538</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.993575064013406</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.2678865758268061</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.7942902693213227</v>
       </c>
       <c r="G9">
-        <v>28.966001074704661</v>
+        <v>82.923086821564652</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -800,23 +800,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>40.152335549296261</v>
-      </c>
-      <c r="C10" s="3">
-        <v>66.727037501892511</v>
-      </c>
-      <c r="D10" s="3">
-        <v>18.39479307680466</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5.2335369525737363</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.7381674859508598</v>
+      <c r="B10" s="4">
+        <v>21.272212757967701</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.0034578019652587</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.6172437483429469</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.6964297748504529</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.4063446307512546</v>
       </c>
       <c r="G10">
-        <v>134.24587056651799</v>
+        <v>42.995688713877612</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>114.94239371200111</v>
+        <v>30.069330200394528</v>
       </c>
       <c r="C11" s="4">
-        <v>9.4022107600170113</v>
+        <v>20.927083319936511</v>
       </c>
       <c r="D11" s="4">
-        <v>8.6695549915195969</v>
+        <v>20.088808182892691</v>
       </c>
       <c r="E11" s="4">
-        <v>3.1571785928105851</v>
+        <v>5.2180215446563487</v>
       </c>
       <c r="F11" s="4">
-        <v>3.9019743078879561</v>
+        <v>6.303402105952058</v>
       </c>
       <c r="G11">
-        <v>140.07331236423619</v>
+        <v>82.606645353832135</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -876,23 +876,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>8.5610524065075353</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.1747571133661801</v>
-      </c>
-      <c r="D12" s="3">
-        <v>16.875638736175539</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9.6364773735081251</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.1679113672329411</v>
+      <c r="B12" s="4">
+        <v>10.38443431267739</v>
+      </c>
+      <c r="C12" s="4">
+        <v>76.691820576942376</v>
+      </c>
+      <c r="D12" s="4">
+        <v>13.01680210291053</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.0575067437318957</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.8569858648327022</v>
       </c>
       <c r="G12">
-        <v>43.415836996790297</v>
+        <v>111.00754960109489</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>8.3566421388757863</v>
+        <v>194.41829330795659</v>
       </c>
       <c r="C13" s="4">
-        <v>5.3112248996847651</v>
+        <v>99.761193942821251</v>
       </c>
       <c r="D13" s="4">
-        <v>5.4899192961368737</v>
+        <v>13.75431326090019</v>
       </c>
       <c r="E13" s="4">
-        <v>4.1558889637603578</v>
+        <v>5.39117757333835</v>
       </c>
       <c r="F13" s="4">
-        <v>4.4720588009141897</v>
+        <v>7.5714846557588942</v>
       </c>
       <c r="G13">
-        <v>27.785734099371972</v>
+        <v>320.89646274077529</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -956,22 +956,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>140.61742076522421</v>
+        <v>77.421312459036514</v>
       </c>
       <c r="C14" s="4">
-        <v>9.0047166937965457</v>
+        <v>16.03528715613087</v>
       </c>
       <c r="D14" s="4">
-        <v>18.78307953436385</v>
+        <v>45.078552742253727</v>
       </c>
       <c r="E14" s="4">
-        <v>4.934320772412411</v>
+        <v>8.728570431519298</v>
       </c>
       <c r="F14" s="4">
-        <v>4.6059388003828383</v>
+        <v>7.7054961661169914</v>
       </c>
       <c r="G14">
-        <v>177.94547656617979</v>
+        <v>154.96921895505741</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -994,22 +994,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>22.602370739199571</v>
+        <v>157.71095531921949</v>
       </c>
       <c r="C15" s="4">
-        <v>47.264964173203538</v>
+        <v>11.248805251654581</v>
       </c>
       <c r="D15" s="4">
-        <v>4.993575064013406</v>
+        <v>10.10260099422419</v>
       </c>
       <c r="E15" s="4">
-        <v>3.2678865758268061</v>
+        <v>8.6231656880647787</v>
       </c>
       <c r="F15" s="4">
-        <v>4.7942902693213227</v>
+        <v>7.9388516920659864</v>
       </c>
       <c r="G15">
-        <v>82.923086821564652</v>
+        <v>195.62437894522901</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1031,23 +1031,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>21.480945533370249</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5.8014358111243434</v>
-      </c>
-      <c r="D16" s="3">
-        <v>15.448961784992919</v>
-      </c>
-      <c r="E16" s="3">
-        <v>8.1308833376835548</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5.2928374533903497</v>
+      <c r="B16" s="4">
+        <v>86.974334611256452</v>
+      </c>
+      <c r="C16" s="4">
+        <v>90.993028396758064</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.5567813182194961</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.8529588349722319</v>
+      </c>
+      <c r="F16" s="4">
+        <v>7.9537450308251056</v>
       </c>
       <c r="G16">
-        <v>56.155063920561403</v>
+        <v>201.3308481920314</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -1070,22 +1070,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>21.272212757967701</v>
+        <v>24.62731540774092</v>
       </c>
       <c r="C17" s="4">
-        <v>6.0034578019652587</v>
+        <v>112.8043812974571</v>
       </c>
       <c r="D17" s="4">
-        <v>6.6172437483429469</v>
+        <v>17.076094310670278</v>
       </c>
       <c r="E17" s="4">
-        <v>3.6964297748504529</v>
+        <v>5.4782161610170599</v>
       </c>
       <c r="F17" s="4">
-        <v>5.4063446307512546</v>
+        <v>8.0515815254689436</v>
       </c>
       <c r="G17">
-        <v>42.995688713877612</v>
+        <v>168.03758870235441</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1107,23 +1107,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>381.56332216677322</v>
-      </c>
-      <c r="C18" s="3">
-        <v>91.505290725521519</v>
-      </c>
-      <c r="D18" s="3">
-        <v>26.912469492870791</v>
-      </c>
-      <c r="E18" s="3">
-        <v>11.156272006116939</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5.4296299699799819</v>
+      <c r="B18" s="4">
+        <v>25.239491443979372</v>
+      </c>
+      <c r="C18" s="4">
+        <v>51.920823517198492</v>
+      </c>
+      <c r="D18" s="4">
+        <v>18.447110632916932</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.3007772718887454</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9.2028367286137041</v>
       </c>
       <c r="G18">
-        <v>516.56698436126248</v>
+        <v>111.1110395945972</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>27</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1145,23 +1145,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>43.615617207972811</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10.462067793400109</v>
-      </c>
-      <c r="D19" s="3">
-        <v>13.60031826761184</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5.8019563266127498</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5.8982552813665716</v>
+      <c r="B19" s="4">
+        <v>10.328323976931991</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100.66702517373049</v>
+      </c>
+      <c r="D19" s="4">
+        <v>24.842034579943931</v>
+      </c>
+      <c r="E19" s="4">
+        <v>6.8427969010859728</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10.24323095585266</v>
       </c>
       <c r="G19">
-        <v>79.37821487696408</v>
+        <v>152.92341158754499</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1184,22 +1184,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>30.069330200394528</v>
+        <v>15.490332077505879</v>
       </c>
       <c r="C20" s="4">
-        <v>20.927083319936511</v>
+        <v>69.316747943850032</v>
       </c>
       <c r="D20" s="4">
-        <v>20.088808182892691</v>
+        <v>21.793829480283431</v>
       </c>
       <c r="E20" s="4">
-        <v>5.2180215446563487</v>
+        <v>7.1552134057315024</v>
       </c>
       <c r="F20" s="4">
-        <v>6.303402105952058</v>
+        <v>11.57698922841203</v>
       </c>
       <c r="G20">
-        <v>82.606645353832135</v>
+        <v>125.3331121357829</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1221,23 +1221,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>48.887318371881157</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5.2062673486177973</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4.4699363594096573</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6.3946741714119266</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6.4971893739124562</v>
+      <c r="B21" s="4">
+        <v>79.502145347875881</v>
+      </c>
+      <c r="C21" s="4">
+        <v>26.98044563768979</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15.902631336672981</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12.839465106700979</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13.67469484778203</v>
       </c>
       <c r="G21">
-        <v>71.455385625232992</v>
+        <v>148.8993822767217</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -1259,23 +1259,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>14.1549939027717</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5.6548858024361746</v>
-      </c>
-      <c r="D22" s="3">
-        <v>5.9429722086410992</v>
-      </c>
-      <c r="E22" s="3">
-        <v>7.1760205570095694</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.637762336568084</v>
+      <c r="B22" s="4">
+        <v>22.979231998380921</v>
+      </c>
+      <c r="C22" s="4">
+        <v>71.788045957511116</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10.36094406303935</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.6179782624359307</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13.893267912108451</v>
       </c>
       <c r="G22">
-        <v>39.566634807426617</v>
+        <v>124.63946819347581</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -1298,22 +1298,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>10.38443431267739</v>
+        <v>2284.1039794570829</v>
       </c>
       <c r="C23" s="4">
-        <v>76.691820576942376</v>
+        <v>172.55324871853611</v>
       </c>
       <c r="D23" s="4">
-        <v>13.01680210291053</v>
+        <v>67.380508907237584</v>
       </c>
       <c r="E23" s="4">
-        <v>4.0575067437318957</v>
+        <v>97.786413017463374</v>
       </c>
       <c r="F23" s="4">
-        <v>6.8569858648327022</v>
+        <v>268.86977249356198</v>
       </c>
       <c r="G23">
-        <v>111.00754960109489</v>
+        <v>2890.6939225938818</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>159.068356225565</v>
+        <v>16.949845222200558</v>
       </c>
       <c r="C24" s="3">
-        <v>34.967750895580053</v>
+        <v>4.0179681036804569</v>
       </c>
       <c r="D24" s="3">
-        <v>11.779416712059909</v>
+        <v>8.7429099726795307</v>
       </c>
       <c r="E24" s="3">
-        <v>8.2110051639647494</v>
+        <v>3.6094415141790801</v>
       </c>
       <c r="F24" s="3">
-        <v>6.8616427815062746</v>
+        <v>2.080115278186728</v>
       </c>
       <c r="G24">
-        <v>220.88817177867591</v>
+        <v>35.400280090926358</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1374,22 +1374,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>16.049274517540081</v>
+        <v>17.35289756377615</v>
       </c>
       <c r="C25" s="3">
-        <v>5.8543771109599776</v>
+        <v>10.284037017998561</v>
       </c>
       <c r="D25" s="3">
-        <v>5.363918488946025</v>
+        <v>9.4399057606212669</v>
       </c>
       <c r="E25" s="3">
-        <v>5.3308769730478902</v>
+        <v>3.403852835214725</v>
       </c>
       <c r="F25" s="3">
-        <v>7.0986482990321882</v>
+        <v>2.2654624552701268</v>
       </c>
       <c r="G25">
-        <v>39.697095389526169</v>
+        <v>42.746155632880807</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1411,23 +1411,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>194.41829330795659</v>
-      </c>
-      <c r="C26" s="4">
-        <v>99.761193942821251</v>
-      </c>
-      <c r="D26" s="4">
-        <v>13.75431326090019</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5.39117757333835</v>
-      </c>
-      <c r="F26" s="4">
-        <v>7.5714846557588942</v>
+      <c r="B26" s="3">
+        <v>36.794795567422568</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.5452236784482416</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.382523042544189</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6.0960774516988971</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.2522316221953691</v>
       </c>
       <c r="G26">
-        <v>320.89646274077529</v>
+        <v>57.07085136230927</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>15</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1449,23 +1449,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>77.421312459036514</v>
-      </c>
-      <c r="C27" s="4">
-        <v>16.03528715613087</v>
-      </c>
-      <c r="D27" s="4">
-        <v>45.078552742253727</v>
-      </c>
-      <c r="E27" s="4">
-        <v>8.728570431519298</v>
-      </c>
-      <c r="F27" s="4">
-        <v>7.7054961661169914</v>
+      <c r="B27" s="3">
+        <v>10.71676283622665</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5.7487517650928952</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5.3028992722647503</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.7352775707691892</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.4623096303511658</v>
       </c>
       <c r="G27">
-        <v>154.96921895505741</v>
+        <v>28.966001074704661</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1474,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1487,23 +1487,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>157.71095531921949</v>
-      </c>
-      <c r="C28" s="4">
-        <v>11.248805251654581</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10.10260099422419</v>
-      </c>
-      <c r="E28" s="4">
-        <v>8.6231656880647787</v>
-      </c>
-      <c r="F28" s="4">
-        <v>7.9388516920659864</v>
+      <c r="B28" s="3">
+        <v>40.152335549296261</v>
+      </c>
+      <c r="C28" s="3">
+        <v>66.727037501892511</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18.39479307680466</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.2335369525737363</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.7381674859508598</v>
       </c>
       <c r="G28">
-        <v>195.62437894522901</v>
+        <v>134.24587056651799</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>12</v>
@@ -1525,23 +1525,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>86.974334611256452</v>
-      </c>
-      <c r="C29" s="4">
-        <v>90.993028396758064</v>
-      </c>
-      <c r="D29" s="4">
-        <v>9.5567813182194961</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5.8529588349722319</v>
-      </c>
-      <c r="F29" s="4">
-        <v>7.9537450308251056</v>
+      <c r="B29" s="3">
+        <v>8.5610524065075353</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.1747571133661801</v>
+      </c>
+      <c r="D29" s="3">
+        <v>16.875638736175539</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.6364773735081251</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.1679113672329411</v>
       </c>
       <c r="G29">
-        <v>201.3308481920314</v>
+        <v>43.415836996790297</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>9</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>12</v>
@@ -1563,23 +1563,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>24.62731540774092</v>
-      </c>
-      <c r="C30" s="4">
-        <v>112.8043812974571</v>
-      </c>
-      <c r="D30" s="4">
-        <v>17.076094310670278</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5.4782161610170599</v>
-      </c>
-      <c r="F30" s="4">
-        <v>8.0515815254689436</v>
+      <c r="B30" s="3">
+        <v>21.480945533370249</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.8014358111243434</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15.448961784992919</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8.1308833376835548</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.2928374533903497</v>
       </c>
       <c r="G30">
-        <v>168.03758870235441</v>
+        <v>56.155063920561403</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>19</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1601,23 +1601,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>25.239491443979372</v>
-      </c>
-      <c r="C31" s="4">
-        <v>51.920823517198492</v>
-      </c>
-      <c r="D31" s="4">
-        <v>18.447110632916932</v>
-      </c>
-      <c r="E31" s="4">
-        <v>6.3007772718887454</v>
-      </c>
-      <c r="F31" s="4">
-        <v>9.2028367286137041</v>
+      <c r="B31" s="3">
+        <v>381.56332216677322</v>
+      </c>
+      <c r="C31" s="3">
+        <v>91.505290725521519</v>
+      </c>
+      <c r="D31" s="3">
+        <v>26.912469492870791</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11.156272006116939</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.4296299699799819</v>
       </c>
       <c r="G31">
-        <v>111.1110395945972</v>
+        <v>516.56698436126248</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1626,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>12</v>
@@ -1640,22 +1640,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>222.1780221588339</v>
+        <v>43.615617207972811</v>
       </c>
       <c r="C32" s="3">
-        <v>14.24737338437092</v>
+        <v>10.462067793400109</v>
       </c>
       <c r="D32" s="3">
-        <v>33.92142633011904</v>
+        <v>13.60031826761184</v>
       </c>
       <c r="E32" s="3">
-        <v>10.99662323407175</v>
+        <v>5.8019563266127498</v>
       </c>
       <c r="F32" s="3">
-        <v>9.9303504498000663</v>
+        <v>5.8982552813665716</v>
       </c>
       <c r="G32">
-        <v>291.27379555719563</v>
+        <v>79.37821487696408</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1678,22 +1678,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>13.070531852928079</v>
+        <v>48.887318371881157</v>
       </c>
       <c r="C33" s="3">
-        <v>5.5061744846132017</v>
+        <v>5.2062673486177973</v>
       </c>
       <c r="D33" s="3">
-        <v>5.9579746745696518</v>
+        <v>4.4699363594096573</v>
       </c>
       <c r="E33" s="3">
-        <v>12.71822688613913</v>
+        <v>6.3946741714119266</v>
       </c>
       <c r="F33" s="3">
-        <v>10.17035243368983</v>
+        <v>6.4971893739124562</v>
       </c>
       <c r="G33">
-        <v>47.423260331939879</v>
+        <v>71.455385625232992</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1715,23 +1715,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>10.328323976931991</v>
-      </c>
-      <c r="C34" s="4">
-        <v>100.66702517373049</v>
-      </c>
-      <c r="D34" s="4">
-        <v>24.842034579943931</v>
-      </c>
-      <c r="E34" s="4">
-        <v>6.8427969010859728</v>
-      </c>
-      <c r="F34" s="4">
-        <v>10.24323095585266</v>
+      <c r="B34" s="3">
+        <v>14.1549939027717</v>
+      </c>
+      <c r="C34" s="3">
+        <v>5.6548858024361746</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5.9429722086410992</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7.1760205570095694</v>
+      </c>
+      <c r="F34" s="3">
+        <v>6.637762336568084</v>
       </c>
       <c r="G34">
-        <v>152.92341158754499</v>
+        <v>39.566634807426617</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>6</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -1754,22 +1754,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>16.547614650618069</v>
+        <v>159.068356225565</v>
       </c>
       <c r="C35" s="3">
-        <v>14.833510225737999</v>
+        <v>34.967750895580053</v>
       </c>
       <c r="D35" s="3">
-        <v>74.636741228597657</v>
+        <v>11.779416712059909</v>
       </c>
       <c r="E35" s="3">
-        <v>14.012338062255409</v>
+        <v>8.2110051639647494</v>
       </c>
       <c r="F35" s="3">
-        <v>11.326328915899939</v>
+        <v>6.8616427815062746</v>
       </c>
       <c r="G35">
-        <v>131.3565330831091</v>
+        <v>220.88817177867591</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1791,23 +1791,23 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="4">
-        <v>15.490332077505879</v>
-      </c>
-      <c r="C36" s="4">
-        <v>69.316747943850032</v>
-      </c>
-      <c r="D36" s="4">
-        <v>21.793829480283431</v>
-      </c>
-      <c r="E36" s="4">
-        <v>7.1552134057315024</v>
-      </c>
-      <c r="F36" s="4">
-        <v>11.57698922841203</v>
+      <c r="B36" s="3">
+        <v>16.049274517540081</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5.8543771109599776</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5.363918488946025</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5.3308769730478902</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7.0986482990321882</v>
       </c>
       <c r="G36">
-        <v>125.3331121357829</v>
+        <v>39.697095389526169</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>13</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
         <v>12</v>
@@ -1830,22 +1830,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>1615.393318485872</v>
+        <v>222.1780221588339</v>
       </c>
       <c r="C37" s="3">
-        <v>275.99533759230491</v>
+        <v>14.24737338437092</v>
       </c>
       <c r="D37" s="3">
-        <v>38.909318377624217</v>
+        <v>33.92142633011904</v>
       </c>
       <c r="E37" s="3">
-        <v>21.971090321440659</v>
+        <v>10.99662323407175</v>
       </c>
       <c r="F37" s="3">
-        <v>13.096629420553491</v>
+        <v>9.9303504498000663</v>
       </c>
       <c r="G37">
-        <v>1965.3656941977961</v>
+        <v>291.27379555719563</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1867,23 +1867,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>79.502145347875881</v>
-      </c>
-      <c r="C38" s="4">
-        <v>26.98044563768979</v>
-      </c>
-      <c r="D38" s="4">
-        <v>15.902631336672981</v>
-      </c>
-      <c r="E38" s="4">
-        <v>12.839465106700979</v>
-      </c>
-      <c r="F38" s="4">
-        <v>13.67469484778203</v>
+      <c r="B38" s="3">
+        <v>13.070531852928079</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5.5061744846132017</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5.9579746745696518</v>
+      </c>
+      <c r="E38" s="3">
+        <v>12.71822688613913</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10.17035243368983</v>
       </c>
       <c r="G38">
-        <v>148.8993822767217</v>
+        <v>47.423260331939879</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>16</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>12</v>
@@ -1905,23 +1905,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>22.979231998380921</v>
-      </c>
-      <c r="C39" s="4">
-        <v>71.788045957511116</v>
-      </c>
-      <c r="D39" s="4">
-        <v>10.36094406303935</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5.6179782624359307</v>
-      </c>
-      <c r="F39" s="4">
-        <v>13.893267912108451</v>
+      <c r="B39" s="3">
+        <v>16.547614650618069</v>
+      </c>
+      <c r="C39" s="3">
+        <v>14.833510225737999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>74.636741228597657</v>
+      </c>
+      <c r="E39" s="3">
+        <v>14.012338062255409</v>
+      </c>
+      <c r="F39" s="3">
+        <v>11.326328915899939</v>
       </c>
       <c r="G39">
-        <v>124.63946819347581</v>
+        <v>131.3565330831091</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1932,8 +1932,8 @@
       <c r="J39">
         <v>23</v>
       </c>
-      <c r="K39" s="4">
-        <v>0</v>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1944,22 +1944,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>405.38111292255462</v>
+        <v>1615.393318485872</v>
       </c>
       <c r="C40" s="3">
-        <v>83.073425825896038</v>
+        <v>275.99533759230491</v>
       </c>
       <c r="D40" s="3">
-        <v>38.424802282707972</v>
+        <v>38.909318377624217</v>
       </c>
       <c r="E40" s="3">
-        <v>17.09188284268901</v>
+        <v>21.971090321440659</v>
       </c>
       <c r="F40" s="3">
-        <v>18.202522662454829</v>
+        <v>13.096629420553491</v>
       </c>
       <c r="G40">
-        <v>562.17374653630236</v>
+        <v>1965.3656941977961</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>31.499601528849649</v>
+        <v>405.38111292255462</v>
       </c>
       <c r="C41" s="3">
-        <v>39.984257990954873</v>
+        <v>83.073425825896038</v>
       </c>
       <c r="D41" s="3">
-        <v>43.005184270254858</v>
+        <v>38.424802282707972</v>
       </c>
       <c r="E41" s="3">
-        <v>44.26267979732939</v>
+        <v>17.09188284268901</v>
       </c>
       <c r="F41" s="3">
-        <v>22.980374369123268</v>
+        <v>18.202522662454829</v>
       </c>
       <c r="G41">
-        <v>181.73209795651201</v>
+        <v>562.17374653630236</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2020,22 +2020,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>11.46470411338003</v>
+        <v>31.499601528849649</v>
       </c>
       <c r="C42" s="3">
-        <v>16.49362254752705</v>
+        <v>39.984257990954873</v>
       </c>
       <c r="D42" s="3">
-        <v>13.50853013787725</v>
+        <v>43.005184270254858</v>
       </c>
       <c r="E42" s="3">
-        <v>43.560177282073823</v>
+        <v>44.26267979732939</v>
       </c>
       <c r="F42" s="3">
-        <v>80.084188383821271</v>
+        <v>22.980374369123268</v>
       </c>
       <c r="G42">
-        <v>165.1112224646794</v>
+        <v>181.73209795651201</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>23.133560794585701</v>
+        <v>11.46470411338003</v>
       </c>
       <c r="C43" s="3">
-        <v>17.24101021009276</v>
+        <v>16.49362254752705</v>
       </c>
       <c r="D43" s="3">
-        <v>59.575924815620368</v>
+        <v>13.50853013787725</v>
       </c>
       <c r="E43" s="3">
-        <v>54.121097010836031</v>
+        <v>43.560177282073823</v>
       </c>
       <c r="F43" s="3">
-        <v>93.592109599676363</v>
+        <v>80.084188383821271</v>
       </c>
       <c r="G43">
-        <v>247.66370243081121</v>
+        <v>165.1112224646794</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2096,22 +2096,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>64.695737509823459</v>
+        <v>23.133560794585701</v>
       </c>
       <c r="C44" s="3">
-        <v>61.147775475685613</v>
+        <v>17.24101021009276</v>
       </c>
       <c r="D44" s="3">
-        <v>72.777557376216834</v>
+        <v>59.575924815620368</v>
       </c>
       <c r="E44" s="3">
-        <v>94.122507522784133</v>
+        <v>54.121097010836031</v>
       </c>
       <c r="F44" s="3">
-        <v>102.0152852935597</v>
+        <v>93.592109599676363</v>
       </c>
       <c r="G44">
-        <v>394.75886317806959</v>
+        <v>247.66370243081121</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2134,22 +2134,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>414.21787506223689</v>
+        <v>64.695737509823459</v>
       </c>
       <c r="C45" s="3">
-        <v>247.47391774320761</v>
+        <v>61.147775475685613</v>
       </c>
       <c r="D45" s="3">
-        <v>242.210043124881</v>
+        <v>72.777557376216834</v>
       </c>
       <c r="E45" s="3">
-        <v>130.51865564184831</v>
+        <v>94.122507522784133</v>
       </c>
       <c r="F45" s="3">
-        <v>147.9080203175366</v>
+        <v>102.0152852935597</v>
       </c>
       <c r="G45">
-        <v>1182.3285118897099</v>
+        <v>394.75886317806959</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2171,23 +2171,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>2284.1039794570829</v>
-      </c>
-      <c r="C46" s="4">
-        <v>172.55324871853611</v>
-      </c>
-      <c r="D46" s="4">
-        <v>67.380508907237584</v>
-      </c>
-      <c r="E46" s="4">
-        <v>97.786413017463374</v>
-      </c>
-      <c r="F46" s="4">
-        <v>268.86977249356198</v>
+      <c r="B46" s="3">
+        <v>414.21787506223689</v>
+      </c>
+      <c r="C46" s="3">
+        <v>247.47391774320761</v>
+      </c>
+      <c r="D46" s="3">
+        <v>242.210043124881</v>
+      </c>
+      <c r="E46" s="3">
+        <v>130.51865564184831</v>
+      </c>
+      <c r="F46" s="3">
+        <v>147.9080203175366</v>
       </c>
       <c r="G46">
-        <v>2890.6939225938818</v>
+        <v>1182.3285118897099</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>12</v>
@@ -2244,8 +2244,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
